--- a/Fase 2/Evidencias Grupales/PLANILLA DE EVALUACIÓN AVANCE FASE 2.xlsx
+++ b/Fase 2/Evidencias Grupales/PLANILLA DE EVALUACIÓN AVANCE FASE 2.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/988103e5e8830c39/Escritorio/Ingenieria en Informatica/4to Año-Ingenieria en informatica/CAPSTONE/Documentos Fase 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\IntDUC24\Fase 2\Evidencias Grupales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="613" documentId="8_{2EFDF332-31E9-4C74-A6B5-E695634C1C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB8E2D65-3B2B-4A6F-920F-6457B271AF6F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99735EBC-C0D0-4982-B2EB-11F9885DF338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EVALUACION1" sheetId="1" r:id="rId1"/>
+    <sheet name="EVALUACION" sheetId="1" r:id="rId1"/>
     <sheet name="RUBRICA" sheetId="6" r:id="rId2"/>
     <sheet name="ESCALA_IEP" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="ESCALA_PRESENTACION" sheetId="3" state="hidden" r:id="rId4"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
   <si>
     <t>PUNTOS</t>
   </si>
@@ -170,154 +170,10 @@
     <t xml:space="preserve">Logro incipiente </t>
   </si>
   <si>
-    <t>1. Describe brevemente en qué consiste el Proyecto APT, justificando su relevancia para el campo laboral de su carrera.</t>
-  </si>
-  <si>
-    <t>Describe brevemente en qué consiste el proyecto APT, justificando la relevancia, impacto o beneficio (real o simulado) que tendría en el campo laboral de su carrera.</t>
-  </si>
-  <si>
-    <t>Describe brevemente en qué consiste el proyecto APT, señalando la relevancia, impacto o beneficio (real o simulado) que tendría, pero no queda clara la relación con el campo laboral de su carrera.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe brevemente en qué consiste el proyecto APT, pero no fue justificado ni relacionado con el campo laboral de su carrera. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No describe o es confuso el proyecto APT, sin justificar ni relacionarlo con el campo laboral de su carrera. </t>
-  </si>
-  <si>
-    <t>2. Relaciona el Proyecto APT con las competencias del perfil de egreso de su Plan de Estudio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe una relación coherente entre el proyecto y el perfil de egreso del plan de estudio, especificando cómo debe utilizar distintas competencias para desarrollar su Proyecto APT. </t>
-  </si>
-  <si>
-    <t>Describe una relación coherente entre el proyecto y el perfil de egreso del plan de estudio, pero no especifica cómo debe utilizar distintas competencias para desarrollar su Proyecto APT.</t>
-  </si>
-  <si>
-    <t>Describe una relación que tiene elementos pero que no son coherentes entre el proyecto y el perfil de egreso del plan de estudio.</t>
-  </si>
-  <si>
-    <t>3. Relaciona el Proyecto APT con sus intereses profesionales. *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menciona los intereses profesionales y explica con claridad cómo estos se ven reflejados en el proyecto. </t>
-  </si>
-  <si>
-    <t>Menciona los intereses profesionales, pero no queda completamente clara su conexión con el proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menciona los intereses profesionales sin conectarlos con el proyecto. </t>
-  </si>
-  <si>
-    <t>No menciona los intereses profesionales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.  Argumenta por qué el proyecto es factible de realizarse en el marco de la asignatura. </t>
-  </si>
-  <si>
-    <t>Justifica por qué el proyecto puede desarrollarse considerado tiempo, materiales y factores externos, y en caso de posibles dificultades plantea como las abordaría.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. Formula objetivos claros, concisos y coherentes con la disciplina y la situación a abordar. </t>
-  </si>
-  <si>
-    <t>Formula objetivos claros, concisos y coherentes con la disciplina y la situación a abordar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula objetivos claros y coherentes con la situación a abordar, pero imprecisos de acuerdo a la disciplina. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formula objetivos confusos, por lo que no queda claro lo que se busca alcanzar ni si es coherente con la situación a abordar.  </t>
-  </si>
-  <si>
-    <t>No plantea objetivos o estos no son coherentes con la disciplina ni la situación a abordar.</t>
-  </si>
-  <si>
-    <t>6. Propone una metodología de trabajo que permite alcanzar los objetivos propuestos y es pertinente con los requerimientos disciplinares.</t>
-  </si>
-  <si>
-    <t>Describe una metodología pertinente con los requerimientos disciplinares, contemplando todos los aspectos necesarios para alcanzar los objetivos planteados.</t>
-  </si>
-  <si>
-    <t>Describe una metodología pertinente con los requerimientos disciplinares, pero no contempla todos los aspectos necesarios para alcanzar los objetivos planteados.</t>
-  </si>
-  <si>
-    <t>Describe una metodología que no es del todo pertinente para lograr los objetivos planteados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No describe una metodología, o bien esta no es pertinente para lograr los objetivos propuestos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. Establece un plan de trabajo para su proyecto APT considerando los recursos, duración, facilitadores y obstaculizadores en el desarrollo de las actividades. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establece un plan de trabajo con todas las actividades necesarias para cumplir los objetivos, teniendo en consideración los recursos, duración, facilitadores y obstaculizadores. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establece un plan de trabajo con la mayoría de las actividades necesarias para cumplir los objetivos, teniendo en consideración los recursos, duración, facilitadores y obstaculizadores. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Establece un plan de trabajo que carece de actividades necesarias para cumplir los objetivos y/o no tiene en consideración los recursos, duración, facilitadores y obstaculizadores. </t>
-  </si>
-  <si>
-    <t>No establece un plan de trabajo, o bien este no permite cumplir los objetivos del proyecto APT.</t>
-  </si>
-  <si>
-    <t>8. Determina evidencias, justificando cómo estas dan cuenta del logro de las actividades del Proyecto APT.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe evidencias que permiten dar cuenta del logro de las actividades del proyecto APT y justifica su selección. </t>
-  </si>
-  <si>
-    <t>Describe evidencias que permiten dar cuenta del logro de las actividades del proyecto APT, pero no justifica con claridad su selección.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe evidencias que permiten dar cuenta del logro de solo algunas actividades del proyecto APT y/o no justifica su selección. </t>
-  </si>
-  <si>
-    <t>No incluye evidencias que pueden dar cuenta del desarrollo del proyecto.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9. Utiliza reglas de redacción, ortografía (literal, puntual, acentual) y las normas para citas y referencias. </t>
-  </si>
-  <si>
     <t>El texto presenta de 1 a 5 errores de ortografía, redacción o en las citas y referencias del informe.</t>
   </si>
   <si>
-    <t>El texto presenta de 6 a 10 errores de ortografía, redacción o en las citas y referencias del informe.</t>
-  </si>
-  <si>
-    <t>El texto presenta más de 10 errores de ortografía, redacción o en las citas y referencias del informe.</t>
-  </si>
-  <si>
-    <t>El estudiante realiza un excelente trabajo en equipo, fomentando un ambiente positivo, siendo participativo con su equipo en las sesiones presenciales de la asignatura y participando de manera equitativa en la presentación del caso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El estudiante realiza un buen trabajo en equipo, fomentando un ambiente positivo, siendo participativo con su equipo en las sesiones presenciales de la asignatura, pero no demuestra una participación de manera equitativa en la presentación del caso </t>
-  </si>
-  <si>
-    <t>El estudiante realiza un trabajo deficiente con el equipo, fomentando un ambiente positivo pero no demuestra ser participativo con su equipo en las sesiones presenciales de la asignatura o se ausenta constantemente y/o  no demuestra una participación de manera equitativa en la presentación del caso</t>
-  </si>
-  <si>
-    <t>El estudiante realiza un mal trabajo con el equipo no fomentando un ambiente positivo, no demuestra ser participativo con su equipo en las sesiones presenciales de la asignatura o se ausenta constantemente y no demuestra una participación de manera equitativa en la presentación del caso</t>
-  </si>
-  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe una relación sin coherencia entre el proyecto y el perfil de egreso del plan de estudio o no relaciona el proyecto con el perfil de egreso. </t>
-  </si>
-  <si>
-    <t>Justifica por qué el proyecto puede desarrollarse, considerando el tiempo y materiales o factores externos y en caso de posibles dificultades no plantea claramente como las abordaría.</t>
-  </si>
-  <si>
-    <t>Justifica por qué el proyecto puede desarrollarse en el tiempo de la asignatura, sin considerar materiales ni factores externos y en caso de posibles dificultades no plantea como abordarlas.</t>
-  </si>
-  <si>
-    <t>No justifica las razones de porque el proyecto puede desarrollarse, o el proyecto presentado no es factible de realizarse en el tiempo asignado.</t>
-  </si>
-  <si>
-    <t>El texto cumple con las reglas ortografía y de redacción en todos sus apartados y utiliza correctamente todas las normas de citación y referencias.</t>
   </si>
   <si>
     <t>Logro Incipiente</t>
@@ -326,55 +182,31 @@
     <t>Logro incipiente</t>
   </si>
   <si>
-    <t>Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información en todo momento</t>
+    <t>1. Propone ajustes al proyecto APT considerando dificultades, facilitadores y retroalimentación.</t>
   </si>
   <si>
-    <t>Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información la mayoría del tiempo.</t>
+    <t>Señala los ajustes que realizó o realizará y los justifica considerando las dificultades, facilitadores y retroalimentación del docente.</t>
   </si>
   <si>
-    <t>Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información la mitad del tiempo.</t>
+    <t>2. Aplica una metodología que permite el logro de los objetivos propuestos, de acuerdo a los estándares de la disciplina.</t>
   </si>
   <si>
-    <t>Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información en menos de la mitad del tiempo.</t>
+    <t>Aplica la metodología definida de acuerdo a los estándares de la disciplina, alcanzando los objetivos propuestos para el avance del proyecto..</t>
   </si>
   <si>
-    <t>13. Colaboración y trabajo en equipo *</t>
+    <t>3. Genera evidencias que dan cuenta del avance del Proyecto APT en relación a documentación, programación y almacenamiento de datos, de acuerdo a lo planificado por el equipo y que cumpla con estándares de desarrollo de la industria.</t>
   </si>
   <si>
-    <t>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</t>
+    <t>Presenta evidencias de avance que cumplen con lo planificado por el equipo en relación a documentación, programación y almacenamiento de datos, entregando evidencias que cumplan con estándares de desarrollo que actualmente se encuentran presentes en la industria.</t>
   </si>
   <si>
-    <t>10. Cumple completando el contenido del informe de presentación del proyecto de acuerdo con la plantilla entregada.</t>
+    <t>4. Utiliza de manera precisa el lenguaje técnico de acuerdo con lo requerido por la disciplina.</t>
   </si>
   <si>
-    <t>Cumple con todos los ítems solicitados en el informe de presentación del proyecto, siendo estos contenidos coherentes con lo solicitado en cada ítem</t>
+    <t>Utiliza lenguaje técnico de su disciplina en la mayoría de los entregables de avance del proyecto.</t>
   </si>
   <si>
-    <t>No cumple con todos los ítems solicitados en el informe de presentación del proyecto, siendo los  contenidos entregados coherentes con lo solicitado en cada ítem</t>
-  </si>
-  <si>
-    <t>No cumple con todos los ítems solicitados en el 
-informe de presentación del proyecto, siendo los 
-contenidos entregados coherentes con lo solicitado en cada ítem</t>
-  </si>
-  <si>
-    <t>No cumple con todos los ítems solicitados en el informe de presentación del proyecto, y los contenidos entregados son poco coherentes con lo solicitado en cada ítem</t>
-  </si>
-  <si>
-    <t>12. Desarrolla un plan de trabajo que permita del logro de los objetivos propuestos del proyecto de 
-acuerdo a los tiempos para su desarrollo</t>
-  </si>
-  <si>
-    <t>Desarrolla un plan de trabajo que permite el logro de los objetivos propuestos del proyecto de acuerdo a los tiempos para su desarrollo y contiene hitos claros para demostrar el estado de avance</t>
-  </si>
-  <si>
-    <t>Desarrolla un plan de trabajo que permita el logro de los objetivos propuestos del proyecto de acuerdo a los tiempos para su desarrollo pero no demuestran hitos claros para demostrar el estado de avance</t>
-  </si>
-  <si>
-    <t>El desarrollo del plan de trabajo no permite determinar si el logro de los objetivos propuestos del proyecto son alcanzables en los tiempos para su desarrollo pero si demuestran hitos claros para demostrar el estado de avance</t>
-  </si>
-  <si>
-    <t>El desarrollo del plan de trabajo no permite determinar si el logro de los objetivos propuestos del proyecto son alcanzables en los tiempos para su desarrollo y no demuestran hitos claros para demostrar el estado de avance</t>
+    <t>5.Utiliza reglas de redacción, ortografía (literal, puntual, acentual) y las normas para citas y referencias.</t>
   </si>
   <si>
     <t>Vicente Espinosa</t>
@@ -385,6 +217,96 @@
   <si>
     <t>Jorge Sandoval</t>
   </si>
+  <si>
+    <t>Señala algunos de los ajustes que realizó o realizará y los justifica considerando las dificultades, facilitadores y retroalimentación del docente.</t>
+  </si>
+  <si>
+    <t>Señala los ajustes que realizó o realizará, pero no los justifica</t>
+  </si>
+  <si>
+    <t>No incluye ajustes ni justifica por qué mantiene su plan inicial.</t>
+  </si>
+  <si>
+    <t>Aplica la metodología definida de acuerdo a los estándares de la disciplina, pero no se observa el cumplimiento de objetivos propuestos para el avance del proyecto.</t>
+  </si>
+  <si>
+    <t>Aplica la metodología definida cumpliendo parcialmente con los estándares de la disciplina y con los objetivos propuestos para el avance del proyecto.</t>
+  </si>
+  <si>
+    <t>Aplica la metodología definida sin cumplir los estándares de la disciplina ni los objetivos propuestos para el avance del proyecto.</t>
+  </si>
+  <si>
+    <t>Presenta evidencias de avance sin cumplir con lo planificado por el equipo en relación a documentación, programación y almacenamiento de datos, pero si sus entregas evidencian el cumplimiento de estándares de desarrollo que actualmente se encuentran presentes en la industria.</t>
+  </si>
+  <si>
+    <t>Presenta evidencias de avance que cumplen con lo planificado por el equipo en relación a documentación, programación y almacenamiento de datos, entregando evidencias que no cumplen con estándares de desarrollo que actualmente se encuentran presentes en la industria.</t>
+  </si>
+  <si>
+    <t>Presenta evidencias de avance sin cumplir con lo planificado por el equipo en relación a documentación, programación y almacenamiento de datos y las evidencias no cumplen con estándares de desarrollo que actualmente se encuentran presentes en la industria.</t>
+  </si>
+  <si>
+    <t>Utiliza lenguaje técnico de su disciplina en todos los entregables de avance del proyecto.</t>
+  </si>
+  <si>
+    <t>Utiliza lenguaje técnico de su disciplina en la menos de la mitad de los entregables de avance del proyecto.</t>
+  </si>
+  <si>
+    <t>No utiliza lenguaje técnico de su disciplina en los entregables de avance del proyecto.</t>
+  </si>
+  <si>
+    <t>El texto cumple con las reglas ortografía y de redacción en todos sus apartados y utiliza correctamente todas las normas de citación y referencias.</t>
+  </si>
+  <si>
+    <t>El texto presenta de 6 a 10 errores de ortografía, redacción o en las citas y referencias del informe.</t>
+  </si>
+  <si>
+    <t>El texto presenta más de 10 errores de ortografía, redacción o en las citas y referencias del informe.</t>
+  </si>
+  <si>
+    <t>Entrega la documentación y evidencias requeridas por la asignatura de acuerdo a la estrucutra y nombres solicitados, guardando todas las evidencias de avances en Git.</t>
+  </si>
+  <si>
+    <t>Entrega la documentación y evidencias requeridas por la asignatura de acuerdo a la estrucutra y nombres solicitados, guardando algunas de las evidencias de avances en Git.</t>
+  </si>
+  <si>
+    <t>Entrega la documentación y evidencias requeridas por la asignatura sin una la estrucutra y nombres solicitados, guardando algunas de las evidencias de avances en Git.</t>
+  </si>
+  <si>
+    <t>No entrega a través de Git la documentación y evidencias de avance requeridas por la asignatura.</t>
+  </si>
+  <si>
+    <t>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git.</t>
+  </si>
+  <si>
+    <t>Generan evidencias dentro del repositorio del proyecto del aporte de cada uno de los integrantes del equipo que permitan identificar la equidad en el trabajo y la participación de cada estudiante.</t>
+  </si>
+  <si>
+    <t>Generan evidencias dentro del repositorio del proyecto del aporte de cada uno de los integrantes del equipo pero la evidencia no demuestra una equidad en la participación de cada estudiante.</t>
+  </si>
+  <si>
+    <t>Generan evidencias dentro del repositorio del proyecto del aporte de cada uno de los integrantes del equipo pero la evidencia no demuestra la participación de algunos(s) participante(s) del equipo.</t>
+  </si>
+  <si>
+    <t>No generan evidencias dentro del repositorio del proyecto del aporte de cada uno de los integrantes del equipo por lo que no se permite identificar la equidad en el trabajo y la participación de cada estudiante.</t>
+  </si>
+  <si>
+    <t>Redacta los textos en inglés siguiendo una secuencia lógica en la que todas las oraciones se conectan de manera fluida y comprensible, utilizando en forma correcta las estructuras gramaticales y el vocabulario pertinentes al tema.</t>
+  </si>
+  <si>
+    <t>Redacta los textos en inglés siguiendo una secuencia lógica en la que gran parte de las oraciones se conectan de manera fluida y comprensible, utilizando en forma correcta la mayoría de las estructuras gramaticales y el vocabulario pertinentes al tema.</t>
+  </si>
+  <si>
+    <t>Redacta los textos en inglés usando una secuencia limitada o desorganizada que dificulta la comprensión de las ideas, utilizando inadecuadamente las estructuras gramaticales y el vocabulario pertinentes al tema.</t>
+  </si>
+  <si>
+    <t>No produce texto en inglés o escribe frases sueltas que no se relacionan entre ellas impidiendo la comprensión de las ideas, utilizando estructuras gramaticales y vocabulario con errores graves.</t>
+  </si>
+  <si>
+    <t>7. Generan evidencias claras dentro del repositorio del aporte de cada uno de los integrantes del equipo que permitan identificar la equidad en el trabajo y la participación de cada estudiante.</t>
+  </si>
+  <si>
+    <t>8. Demuestra un trabajo en equipo en donde todos los miembros del equipo expresan con fluidez el conocimiento del tema expuesto y participan de las actividades planificadas en el proyecto.</t>
+  </si>
 </sst>
 </file>
 
@@ -393,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -477,12 +399,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF3B3838"/>
@@ -553,7 +469,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -812,111 +728,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -940,11 +751,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1009,43 +835,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1054,34 +844,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1089,13 +861,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1104,15 +876,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,44 +897,38 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K929"/>
+  <dimension ref="A2:K920"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1287,7 @@
       <c r="D2" s="2">
         <v>0.25</v>
       </c>
-      <c r="E2" s="67">
+      <c r="E2" s="50">
         <v>1</v>
       </c>
     </row>
@@ -1532,26 +1301,26 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>95</v>
+      <c r="B4" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="C4" s="6">
-        <f>EVALUACION1!$C$24</f>
+        <f>EVALUACION!$C$21</f>
+        <v>6.6</v>
+      </c>
+      <c r="D4" s="6">
+        <f>$C$30</f>
         <v>7</v>
       </c>
-      <c r="D4" s="6">
-        <f>$C$35</f>
-        <v>7</v>
-      </c>
-      <c r="E4" s="51">
+      <c r="E4" s="33">
         <f>C4*C$2+D4*D$2</f>
-        <v>7</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1559,20 +1328,20 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>96</v>
+      <c r="B5" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="C5" s="6">
-        <f>EVALUACION1!$C$24</f>
+        <f>EVALUACION!$C$21</f>
+        <v>6.6</v>
+      </c>
+      <c r="D5" s="6">
+        <f>C40</f>
         <v>7</v>
       </c>
-      <c r="D5" s="6">
-        <f>C47</f>
-        <v>7</v>
-      </c>
-      <c r="E5" s="51">
+      <c r="E5" s="33">
         <f t="shared" ref="E5:E6" si="0">C5*C$2+D5*D$2</f>
-        <v>7</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1580,72 +1349,72 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>97</v>
+      <c r="B6" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="C6" s="6">
-        <f>EVALUACION1!$C$24</f>
+        <f>EVALUACION!$C$21</f>
+        <v>6.6</v>
+      </c>
+      <c r="D6" s="6">
+        <f>C49</f>
         <v>7</v>
       </c>
-      <c r="D6" s="6">
-        <f>C58</f>
-        <v>7</v>
-      </c>
-      <c r="E6" s="51">
+      <c r="E6" s="33">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="63"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="62" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="62" t="s">
+      <c r="E12" s="47"/>
+      <c r="F12" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="62" t="s">
+      <c r="G12" s="47"/>
+      <c r="H12" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="47"/>
+      <c r="J12" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="63"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="41" t="str">
+      <c r="A13" s="53"/>
+      <c r="B13" s="29" t="str">
         <f>RUBRICA!A5</f>
-        <v>1. Describe brevemente en qué consiste el Proyecto APT, justificando su relevancia para el campo laboral de su carrera.</v>
-      </c>
-      <c r="C13" s="39" t="s">
+        <v>1. Propone ajustes al proyecto APT considerando dificultades, facilitadores y retroalimentación.</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="17" t="str">
@@ -1681,13 +1450,13 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="41" t="str">
+    <row r="14" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="29" t="str">
         <f>RUBRICA!A6</f>
-        <v>2. Relaciona el Proyecto APT con las competencias del perfil de egreso de su Plan de Estudio.</v>
-      </c>
-      <c r="C14" s="39" t="s">
+        <v>2. Aplica una metodología que permite el logro de los objetivos propuestos, de acuerdo a los estándares de la disciplina.</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="17" t="str">
@@ -1695,15 +1464,15 @@
         <v>X</v>
       </c>
       <c r="E14" s="17">
-        <f t="shared" ref="E14" si="6">IF(D14="X",100*0.05,"")</f>
-        <v>5</v>
+        <f>IF(D14="X",100*0.1,"")</f>
+        <v>10</v>
       </c>
       <c r="F14" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G14" s="17" t="str">
-        <f t="shared" ref="G14" si="7">IF(F14="X",60*0.05,"")</f>
+        <f t="shared" ref="G14" si="6">IF(F14="X",60*0.05,"")</f>
         <v/>
       </c>
       <c r="H14" s="17" t="str">
@@ -1711,7 +1480,7 @@
         <v/>
       </c>
       <c r="I14" s="17" t="str">
-        <f t="shared" ref="I14" si="8">IF(H14="X",30*0.05,"")</f>
+        <f t="shared" ref="I14" si="7">IF(H14="X",30*0.05,"")</f>
         <v/>
       </c>
       <c r="J14" s="17" t="str">
@@ -1724,12 +1493,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="41" t="str">
+      <c r="A15" s="53"/>
+      <c r="B15" s="29" t="str">
         <f>RUBRICA!A8</f>
-        <v xml:space="preserve">4.  Argumenta por qué el proyecto es factible de realizarse en el marco de la asignatura. </v>
-      </c>
-      <c r="C15" s="39" t="s">
+        <v>4. Utiliza de manera precisa el lenguaje técnico de acuerdo con lo requerido por la disciplina.</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="17" t="str">
@@ -1737,15 +1506,15 @@
         <v>X</v>
       </c>
       <c r="E15" s="17">
-        <f t="shared" ref="E15:E21" si="9">IF(D15="X",100*0.05,"")</f>
-        <v>5</v>
+        <f>IF(D15="X",100*0.03,"")</f>
+        <v>3</v>
       </c>
       <c r="F15" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G15" s="17" t="str">
-        <f t="shared" ref="G15:G21" si="10">IF(F15="X",60*0.05,"")</f>
+        <f t="shared" ref="G15" si="8">IF(F15="X",60*0.05,"")</f>
         <v/>
       </c>
       <c r="H15" s="17" t="str">
@@ -1753,7 +1522,7 @@
         <v/>
       </c>
       <c r="I15" s="17" t="str">
-        <f t="shared" ref="I15:I21" si="11">IF(H15="X",30*0.05,"")</f>
+        <f t="shared" ref="I15" si="9">IF(H15="X",30*0.05,"")</f>
         <v/>
       </c>
       <c r="J15" s="17" t="str">
@@ -1766,12 +1535,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="41" t="str">
+      <c r="A16" s="53"/>
+      <c r="B16" s="29" t="str">
         <f>RUBRICA!A9</f>
-        <v xml:space="preserve">5. Formula objetivos claros, concisos y coherentes con la disciplina y la situación a abordar. </v>
-      </c>
-      <c r="C16" s="39" t="s">
+        <v>5.Utiliza reglas de redacción, ortografía (literal, puntual, acentual) y las normas para citas y referencias.</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="17" t="str">
@@ -1779,8 +1548,8 @@
         <v>X</v>
       </c>
       <c r="E16" s="17">
-        <f>IF(D16="X",100*0.05,"")</f>
-        <v>5</v>
+        <f>IF(D16="X",100*0.03,"")</f>
+        <v>3</v>
       </c>
       <c r="F16" s="17" t="str">
         <f t="shared" si="2"/>
@@ -1807,101 +1576,101 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="41" t="str">
+    <row r="17" spans="1:11" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="29" t="str">
         <f>RUBRICA!A10</f>
-        <v>6. Propone una metodología de trabajo que permite alcanzar los objetivos propuestos y es pertinente con los requerimientos disciplinares.</v>
-      </c>
-      <c r="C17" s="39" t="s">
+        <v>6. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estructura y nombres solicitados, guardando todas las evidencias de avances en Git.</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="17" t="str">
-        <f t="shared" ref="D17:D22" si="12">IF($C17=CL,"X","")</f>
+        <f t="shared" ref="D17:D19" si="10">IF($C17=CL,"X","")</f>
         <v>X</v>
       </c>
       <c r="E17" s="17">
-        <f t="shared" ref="E17" si="13">IF(D17="X",100*0.1,"")</f>
-        <v>10</v>
+        <f>IF(D17="X",100*0.2,"")</f>
+        <v>20</v>
       </c>
       <c r="F17" s="17" t="str">
-        <f t="shared" ref="F17:F22" si="14">IF($C17=L,"X","")</f>
+        <f t="shared" ref="F17:F19" si="11">IF($C17=L,"X","")</f>
         <v/>
       </c>
       <c r="G17" s="17" t="str">
-        <f t="shared" ref="G17" si="15">IF(F17="X",60*0.1,"")</f>
+        <f t="shared" ref="G17" si="12">IF(F17="X",60*0.1,"")</f>
         <v/>
       </c>
       <c r="H17" s="17" t="str">
-        <f t="shared" ref="H17:H22" si="16">IF($C17=ML,"X","")</f>
+        <f t="shared" ref="H17:H19" si="13">IF($C17=ML,"X","")</f>
         <v/>
       </c>
       <c r="I17" s="17" t="str">
-        <f t="shared" ref="I17" si="17">IF(H17="X",30*0.1,"")</f>
+        <f t="shared" ref="I17" si="14">IF(H17="X",30*0.1,"")</f>
         <v/>
       </c>
       <c r="J17" s="17" t="str">
-        <f t="shared" ref="J17:J22" si="18">IF($C17=NL,"X","")</f>
+        <f t="shared" ref="J17:J19" si="15">IF($C17=NL,"X","")</f>
         <v/>
       </c>
       <c r="K17" s="17" t="str">
-        <f t="shared" ref="K17:K22" si="19">IF($J17="X",0,"")</f>
+        <f t="shared" ref="K17:K19" si="16">IF($J17="X",0,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="41" t="str">
+    <row r="18" spans="1:11" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="29" t="str">
         <f>RUBRICA!A11</f>
-        <v xml:space="preserve">7. Establece un plan de trabajo para su proyecto APT considerando los recursos, duración, facilitadores y obstaculizadores en el desarrollo de las actividades. </v>
-      </c>
-      <c r="C18" s="39" t="s">
+        <v>7. Generan evidencias claras dentro del repositorio del aporte de cada uno de los integrantes del equipo que permitan identificar la equidad en el trabajo y la participación de cada estudiante.</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>X</v>
       </c>
       <c r="E18" s="17">
-        <f t="shared" ref="E18" si="20">IF(D18="X",100*0.1,"")</f>
-        <v>10</v>
+        <f>IF(D18="X",100*0.15,"")</f>
+        <v>15</v>
       </c>
       <c r="F18" s="17" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G18" s="17" t="str">
-        <f t="shared" ref="G18" si="21">IF(F18="X",60*0.1,"")</f>
+        <f t="shared" ref="G18" si="17">IF(F18="X",60*0.1,"")</f>
         <v/>
       </c>
       <c r="H18" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I18" s="17" t="str">
+        <f t="shared" ref="I18" si="18">IF(H18="X",30*0.1,"")</f>
+        <v/>
+      </c>
+      <c r="J18" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="K18" s="17" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="I18" s="17" t="str">
-        <f t="shared" ref="I18" si="22">IF(H18="X",30*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="J18" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K18" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="41" t="str">
+    </row>
+    <row r="19" spans="1:11" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
+      <c r="B19" s="29" t="str">
         <f>RUBRICA!A12</f>
-        <v>8. Determina evidencias, justificando cómo estas dan cuenta del logro de las actividades del Proyecto APT.</v>
-      </c>
-      <c r="C19" s="39" t="s">
+        <v>8. Demuestra un trabajo en equipo en donde todos los miembros del equipo expresan con fluidez el conocimiento del tema expuesto y participan de las actividades planificadas en el proyecto.</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="17" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>X</v>
       </c>
       <c r="E19" s="17">
@@ -1909,960 +1678,587 @@
         <v>5</v>
       </c>
       <c r="F19" s="17" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="G19" s="17" t="str">
-        <f t="shared" ref="G19" si="23">IF(F19="X",60*0.05,"")</f>
+        <f t="shared" ref="G19" si="19">IF(F19="X",60*0.05,"")</f>
         <v/>
       </c>
       <c r="H19" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I19" s="17" t="str">
+        <f t="shared" ref="I19" si="20">IF(H19="X",30*0.05,"")</f>
+        <v/>
+      </c>
+      <c r="J19" s="17" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="K19" s="17" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="I19" s="17" t="str">
-        <f t="shared" ref="I19" si="24">IF(H19="X",30*0.05,"")</f>
-        <v/>
-      </c>
-      <c r="J19" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K19" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="24" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="41" t="str">
-        <f>RUBRICA!A13</f>
-        <v xml:space="preserve">9. Utiliza reglas de redacción, ortografía (literal, puntual, acentual) y las normas para citas y referencias. </v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
-      <c r="E20" s="17">
-        <f>IF(D20="X",100*0.05,"")</f>
-        <v>5</v>
-      </c>
-      <c r="F20" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G20" s="17" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H20" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I20" s="17" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J20" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K20" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="22.9" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="41" t="str">
-        <f>RUBRICA!A14</f>
-        <v>10. Cumple completando el contenido del informe de presentación del proyecto de acuerdo con la plantilla entregada.</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
-      <c r="E21" s="17">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="F21" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G21" s="17" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H21" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I21" s="17" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J21" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K21" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="36" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
-      <c r="B22" s="41" t="str">
-        <f>RUBRICA!A16</f>
-        <v>12. Desarrolla un plan de trabajo que permita del logro de los objetivos propuestos del proyecto de 
-acuerdo a los tiempos para su desarrollo</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="17" t="str">
-        <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
-      <c r="E22" s="17">
-        <f>IF(D22="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F22" s="17" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G22" s="17" t="str">
-        <f>IF(F22="X",60*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="H22" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="I22" s="17" t="str">
-        <f>IF(H22="X",30*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K22" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="40" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
+      <c r="B20" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="44">
-        <f>E23+G23+I23+K23</f>
-        <v>70</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20">
-        <f>SUM(E13:E22)</f>
-        <v>70</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20">
-        <f>SUM(G13:G22)</f>
+      <c r="C20" s="32">
+        <f>E20+G20+I20+K20</f>
+        <v>66</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20">
+        <f>SUM(E13:E19)</f>
+        <v>66</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20">
+        <f>SUM(G13:G19)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20">
-        <f>SUM(I13:I22)</f>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20">
+        <f>SUM(I13:I19)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20">
-        <f>SUM(K13:K22)</f>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20">
+        <f>SUM(K13:K19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="43" t="s">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
+      <c r="B21" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="21">
-        <f>VLOOKUP(C23,ESCALA_IEP!A2:B142,2,FALSE)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+      <c r="C21" s="21">
+        <f>VLOOKUP(C20,ESCALA_TRAB_EQUIP!A1:B142,2,FALSE)</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B24" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="56" t="str">
+      <c r="C24" s="38" t="str">
         <f>$B$4</f>
         <v>Vicente Espinosa</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="61"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="15" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="49"/>
+      <c r="B26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D26" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="63"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="16" t="s">
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
+      <c r="B27" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="62" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="62" t="s">
+      <c r="E27" s="47"/>
+      <c r="F27" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="62" t="s">
+      <c r="G27" s="47"/>
+      <c r="H27" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="63"/>
-      <c r="J30" s="62" t="s">
+      <c r="I27" s="47"/>
+      <c r="J27" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="63"/>
-    </row>
-    <row r="31" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="41" t="str">
+      <c r="K27" s="47"/>
+    </row>
+    <row r="28" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="A28" s="49"/>
+      <c r="B28" s="29" t="str">
         <f>RUBRICA!A7</f>
-        <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
-      </c>
-      <c r="C31" s="39" t="s">
+        <v>3. Genera evidencias que dan cuenta del avance del Proyecto APT en relación a documentación, programación y almacenamiento de datos, de acuerdo a lo planificado por el equipo y que cumpla con estándares de desarrollo de la industria.</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="17" t="str">
-        <f t="shared" ref="D31:D32" si="25">IF($C31=CL,"X","")</f>
+      <c r="D28" s="17" t="str">
+        <f t="shared" ref="D28" si="21">IF($C28=CL,"X","")</f>
         <v>X</v>
       </c>
-      <c r="E31" s="17">
-        <f>IF(D31="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F31" s="17" t="str">
-        <f t="shared" ref="F31:F32" si="26">IF($C31=L,"X","")</f>
+      <c r="E28" s="17">
+        <f>IF(D28="X",100*0.25,"")</f>
+        <v>25</v>
+      </c>
+      <c r="F28" s="17" t="str">
+        <f t="shared" ref="F28" si="22">IF($C28=L,"X","")</f>
         <v/>
       </c>
-      <c r="G31" s="17" t="str">
-        <f>IF(F31="X",60*0.1,"")</f>
+      <c r="G28" s="17" t="str">
+        <f>IF(F28="X",60*0.1,"")</f>
         <v/>
       </c>
-      <c r="H31" s="17" t="str">
-        <f t="shared" ref="H31:H32" si="27">IF($C31=ML,"X","")</f>
+      <c r="H28" s="17" t="str">
+        <f t="shared" ref="H28" si="23">IF($C28=ML,"X","")</f>
         <v/>
       </c>
-      <c r="I31" s="17" t="str">
-        <f>IF(H31="X",30*0.1,"")</f>
+      <c r="I28" s="17" t="str">
+        <f>IF(H28="X",30*0.1,"")</f>
         <v/>
       </c>
-      <c r="J31" s="17" t="str">
-        <f t="shared" ref="J31:J32" si="28">IF($C31=NL,"X","")</f>
+      <c r="J28" s="17" t="str">
+        <f t="shared" ref="J28" si="24">IF($C28=NL,"X","")</f>
         <v/>
       </c>
-      <c r="K31" s="17" t="str">
-        <f t="shared" ref="K31:K32" si="29">IF($J31="X",0,"")</f>
+      <c r="K28" s="17" t="str">
+        <f t="shared" ref="K28" si="25">IF($J28="X",0,"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="41" t="str">
-        <f>RUBRICA!A15</f>
-        <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
-      </c>
-      <c r="C32" s="39" t="s">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="19">
+        <f>E29+G29+I29+K29</f>
+        <v>25</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20">
+        <f>SUM(E28:E28)</f>
+        <v>25</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20">
+        <f>SUM(G28:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20">
+        <f>SUM(I28:I28)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20">
+        <f>SUM(K28:K28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
+      <c r="B30" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="21">
+        <f>VLOOKUP(C29,ESCALA_IEP!A1:B52,2,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="D32" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v>X</v>
-      </c>
-      <c r="E32" s="17">
-        <f>IF(D32="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F32" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="G32" s="17" t="str">
-        <f>IF(F32="X",60*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="H32" s="17" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="I32" s="17" t="str">
-        <f>IF(H32="X",30*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="J32" s="17" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="K32" s="17" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="41" t="str">
-        <f>RUBRICA!A17</f>
-        <v>13. Colaboración y trabajo en equipo *</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="17" t="str">
-        <f>IF($C33=CL,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="E33" s="17">
-        <f>IF(D33="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F33" s="17" t="str">
-        <f>IF($C33=L,"X","")</f>
-        <v/>
-      </c>
-      <c r="G33" s="17" t="str">
-        <f>IF(F33="X",60*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="H33" s="17" t="str">
-        <f>IF($C33=ML,"X","")</f>
-        <v/>
-      </c>
-      <c r="I33" s="17" t="str">
-        <f>IF(H33="X",30*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="J33" s="17" t="str">
-        <f>IF($C33=NL,"X","")</f>
-        <v/>
-      </c>
-      <c r="K33" s="17" t="str">
-        <f>IF($J33="X",0,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
-      <c r="B34" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="19">
-        <f>E34+G34+I34+K34</f>
-        <v>30</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20">
-        <f>SUM(E31:E33)</f>
-        <v>30</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20">
-        <f t="shared" ref="G34:K34" si="30">SUM(G31:G33)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
-      <c r="B35" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="21">
-        <f>VLOOKUP(C34,ESCALA_TRAB_EQUIP!A2:B62,2,FALSE)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B34" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="56" t="str">
+      <c r="C34" s="38" t="str">
         <f>B5</f>
         <v>Fabian Jaque</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="58"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="61"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="15" t="s">
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="40"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="49"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="43"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="49"/>
+      <c r="B36" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C36" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D36" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="63"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="16" t="s">
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="47"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="49"/>
+      <c r="B37" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="62" t="s">
+      <c r="C37" s="37"/>
+      <c r="D37" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="63"/>
-      <c r="F42" s="62" t="s">
+      <c r="E37" s="47"/>
+      <c r="F37" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="63"/>
-      <c r="H42" s="62" t="s">
+      <c r="G37" s="47"/>
+      <c r="H37" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="63"/>
-      <c r="J42" s="62" t="s">
+      <c r="I37" s="47"/>
+      <c r="J37" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="63"/>
-    </row>
-    <row r="43" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="41" t="str">
+      <c r="K37" s="47"/>
+    </row>
+    <row r="38" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="A38" s="49"/>
+      <c r="B38" s="29" t="str">
         <f>RUBRICA!A7</f>
-        <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
-      </c>
-      <c r="C43" s="39" t="s">
+        <v>3. Genera evidencias que dan cuenta del avance del Proyecto APT en relación a documentación, programación y almacenamiento de datos, de acuerdo a lo planificado por el equipo y que cumpla con estándares de desarrollo de la industria.</v>
+      </c>
+      <c r="C38" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="17" t="str">
-        <f t="shared" ref="D43:D44" si="31">IF($C43=CL,"X","")</f>
+      <c r="D38" s="17" t="str">
+        <f t="shared" ref="D38" si="26">IF($C38=CL,"X","")</f>
         <v>X</v>
       </c>
-      <c r="E43" s="17">
-        <f>IF(D43="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F43" s="17" t="str">
-        <f t="shared" ref="F43:F44" si="32">IF($C43=L,"X","")</f>
+      <c r="E38" s="17">
+        <f>IF(D38="X",100*0.25,"")</f>
+        <v>25</v>
+      </c>
+      <c r="F38" s="17" t="str">
+        <f t="shared" ref="F38" si="27">IF($C38=L,"X","")</f>
         <v/>
       </c>
-      <c r="G43" s="17" t="str">
-        <f>IF(F43="X",60*0.1,"")</f>
+      <c r="G38" s="17" t="str">
+        <f>IF(F38="X",60*0.1,"")</f>
         <v/>
       </c>
-      <c r="H43" s="17" t="str">
-        <f t="shared" ref="H43:H44" si="33">IF($C43=ML,"X","")</f>
+      <c r="H38" s="17" t="str">
+        <f t="shared" ref="H38" si="28">IF($C38=ML,"X","")</f>
         <v/>
       </c>
-      <c r="I43" s="17" t="str">
-        <f>IF(H43="X",30*0.1,"")</f>
+      <c r="I38" s="17" t="str">
+        <f>IF(H38="X",30*0.1,"")</f>
         <v/>
       </c>
-      <c r="J43" s="17" t="str">
-        <f t="shared" ref="J43:J44" si="34">IF($C43=NL,"X","")</f>
+      <c r="J38" s="17" t="str">
+        <f t="shared" ref="J38" si="29">IF($C38=NL,"X","")</f>
         <v/>
       </c>
-      <c r="K43" s="17" t="str">
-        <f t="shared" ref="K43:K44" si="35">IF($J43="X",0,"")</f>
+      <c r="K38" s="17" t="str">
+        <f t="shared" ref="K38" si="30">IF($J38="X",0,"")</f>
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="41" t="str">
-        <f>RUBRICA!A15</f>
-        <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
-      </c>
-      <c r="C44" s="39" t="s">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="49"/>
+      <c r="B39" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="19">
+        <f>E39+G39+I39+K39</f>
+        <v>25</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20">
+        <f>SUM(E38:E38)</f>
+        <v>25</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20">
+        <f>SUM(G38:G38)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20">
+        <f>SUM(I38:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20">
+        <f>SUM(K38:K38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="37"/>
+      <c r="B40" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="21">
+        <f>VLOOKUP(C39,ESCALA_IEP!A1:B52,2,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="D44" s="17" t="str">
-        <f t="shared" si="31"/>
-        <v>X</v>
-      </c>
-      <c r="E44" s="17">
-        <f>IF(D44="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F44" s="17" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G44" s="17" t="str">
-        <f>IF(F44="X",60*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="H44" s="17" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I44" s="17" t="str">
-        <f>IF(H44="X",30*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="J44" s="17" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K44" s="17" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="41" t="str">
-        <f>RUBRICA!A17</f>
-        <v>13. Colaboración y trabajo en equipo *</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="17" t="str">
-        <f>IF($C45=CL,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="E45" s="17">
-        <f>IF(D45="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F45" s="17" t="str">
-        <f>IF($C45=L,"X","")</f>
-        <v/>
-      </c>
-      <c r="G45" s="17" t="str">
-        <f>IF(F45="X",60*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="H45" s="17" t="str">
-        <f>IF($C45=ML,"X","")</f>
-        <v/>
-      </c>
-      <c r="I45" s="17" t="str">
-        <f>IF(H45="X",30*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="J45" s="17" t="str">
-        <f>IF($C45=NL,"X","")</f>
-        <v/>
-      </c>
-      <c r="K45" s="17" t="str">
-        <f>IF($J45="X",0,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="65"/>
-      <c r="B46" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="19">
-        <f>E46+G46+I46+K46</f>
-        <v>30</v>
-      </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20">
-        <f>SUM(E43:E45)</f>
-        <v>30</v>
-      </c>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20">
-        <f t="shared" ref="G46" si="36">SUM(G43:G45)</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20">
-        <f t="shared" ref="I46" si="37">SUM(I43:I45)</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20">
-        <f t="shared" ref="K46" si="38">SUM(K43:K45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
-      <c r="B47" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" s="21">
-        <f>VLOOKUP(C46,ESCALA_TRAB_EQUIP!A2:B62,2,FALSE)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="23"/>
-      <c r="C48" s="24"/>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="64" t="s">
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="23"/>
+      <c r="C41" s="24"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="23"/>
+      <c r="C42" s="24"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B43" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="56" t="str">
+      <c r="C43" s="38" t="str">
         <f>B6</f>
         <v>Jorge Sandoval</v>
       </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="57"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="58"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="61"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="15" t="s">
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="40"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="49"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="43"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="49"/>
+      <c r="B45" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C45" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="62" t="s">
+      <c r="D45" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="63"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
-      <c r="B53" s="16" t="s">
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="47"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="49"/>
+      <c r="B46" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="62" t="s">
+      <c r="C46" s="37"/>
+      <c r="D46" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="63"/>
-      <c r="F53" s="62" t="s">
+      <c r="E46" s="47"/>
+      <c r="F46" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="63"/>
-      <c r="H53" s="62" t="s">
+      <c r="G46" s="47"/>
+      <c r="H46" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="63"/>
-      <c r="J53" s="62" t="s">
+      <c r="I46" s="47"/>
+      <c r="J46" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="K53" s="63"/>
-    </row>
-    <row r="54" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
-      <c r="B54" s="41" t="str">
+      <c r="K46" s="47"/>
+    </row>
+    <row r="47" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+      <c r="A47" s="49"/>
+      <c r="B47" s="29" t="str">
         <f>RUBRICA!A7</f>
-        <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
-      </c>
-      <c r="C54" s="39" t="s">
+        <v>3. Genera evidencias que dan cuenta del avance del Proyecto APT en relación a documentación, programación y almacenamiento de datos, de acuerdo a lo planificado por el equipo y que cumpla con estándares de desarrollo de la industria.</v>
+      </c>
+      <c r="C47" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="17" t="str">
-        <f t="shared" ref="D54:D55" si="39">IF($C54=CL,"X","")</f>
+      <c r="D47" s="17" t="str">
+        <f t="shared" ref="D47" si="31">IF($C47=CL,"X","")</f>
         <v>X</v>
       </c>
-      <c r="E54" s="17">
-        <f>IF(D54="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F54" s="17" t="str">
-        <f t="shared" ref="F54:F55" si="40">IF($C54=L,"X","")</f>
+      <c r="E47" s="17">
+        <f>IF(D47="X",100*0.25,"")</f>
+        <v>25</v>
+      </c>
+      <c r="F47" s="17" t="str">
+        <f t="shared" ref="F47" si="32">IF($C47=L,"X","")</f>
         <v/>
       </c>
-      <c r="G54" s="17" t="str">
-        <f>IF(F54="X",60*0.1,"")</f>
+      <c r="G47" s="17" t="str">
+        <f>IF(F47="X",60*0.1,"")</f>
         <v/>
       </c>
-      <c r="H54" s="17" t="str">
-        <f t="shared" ref="H54:H55" si="41">IF($C54=ML,"X","")</f>
+      <c r="H47" s="17" t="str">
+        <f t="shared" ref="H47" si="33">IF($C47=ML,"X","")</f>
         <v/>
       </c>
-      <c r="I54" s="17" t="str">
-        <f>IF(H54="X",30*0.1,"")</f>
+      <c r="I47" s="17" t="str">
+        <f>IF(H47="X",30*0.1,"")</f>
         <v/>
       </c>
-      <c r="J54" s="17" t="str">
-        <f t="shared" ref="J54:J55" si="42">IF($C54=NL,"X","")</f>
+      <c r="J47" s="17" t="str">
+        <f t="shared" ref="J47" si="34">IF($C47=NL,"X","")</f>
         <v/>
       </c>
-      <c r="K54" s="17" t="str">
-        <f t="shared" ref="K54:K55" si="43">IF($J54="X",0,"")</f>
+      <c r="K47" s="17" t="str">
+        <f t="shared" ref="K47" si="35">IF($J47="X",0,"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="24" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
-      <c r="B55" s="41" t="str">
-        <f>RUBRICA!A15</f>
-        <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
-      </c>
-      <c r="C55" s="39" t="s">
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="49"/>
+      <c r="B48" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="19">
+        <f>E48+G48+I48+K48</f>
+        <v>25</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20">
+        <f t="shared" ref="E48:K48" si="36">SUM(E47:E47)</f>
+        <v>25</v>
+      </c>
+      <c r="F48" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="20">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="37"/>
+      <c r="B49" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="21">
+        <f>VLOOKUP(C48,ESCALA_IEP!A1:B52,2,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="D55" s="17" t="str">
-        <f t="shared" si="39"/>
-        <v>X</v>
-      </c>
-      <c r="E55" s="17">
-        <f>IF(D55="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F55" s="17" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G55" s="17" t="str">
-        <f>IF(F55="X",60*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="H55" s="17" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I55" s="17" t="str">
-        <f>IF(H55="X",30*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="J55" s="17" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="K55" s="17" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="B56" s="41" t="str">
-        <f>RUBRICA!A17</f>
-        <v>13. Colaboración y trabajo en equipo *</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="17" t="str">
-        <f>IF($C56=CL,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="E56" s="17">
-        <f>IF(D56="X",100*0.1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="F56" s="17" t="str">
-        <f>IF($C56=L,"X","")</f>
-        <v/>
-      </c>
-      <c r="G56" s="17" t="str">
-        <f>IF(F56="X",60*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="H56" s="17" t="str">
-        <f>IF($C56=ML,"X","")</f>
-        <v/>
-      </c>
-      <c r="I56" s="17" t="str">
-        <f>IF(H56="X",30*0.1,"")</f>
-        <v/>
-      </c>
-      <c r="J56" s="17" t="str">
-        <f>IF($C56=NL,"X","")</f>
-        <v/>
-      </c>
-      <c r="K56" s="17" t="str">
-        <f>IF($J56="X",0,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
-      <c r="B57" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="19">
-        <f>E57+G57+I57+K57</f>
-        <v>30</v>
-      </c>
-      <c r="D57" s="20">
-        <f>COUNTIF(D55:D56,"X")</f>
-        <v>2</v>
-      </c>
-      <c r="E57" s="20">
-        <f>SUM(E54:E56)</f>
-        <v>30</v>
-      </c>
-      <c r="F57" s="20">
-        <f t="shared" ref="F57" si="44">SUM(F54:F56)</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="20">
-        <f t="shared" ref="G57" si="45">SUM(G54:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="20">
-        <f t="shared" ref="H57" si="46">SUM(H54:H56)</f>
-        <v>0</v>
-      </c>
-      <c r="I57" s="20">
-        <f t="shared" ref="I57" si="47">SUM(I54:I56)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="20">
-        <f t="shared" ref="J57" si="48">SUM(J54:J56)</f>
-        <v>0</v>
-      </c>
-      <c r="K57" s="20">
-        <f t="shared" ref="K57" si="49">SUM(K54:K56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="54"/>
-      <c r="B58" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="21">
-        <f>VLOOKUP(C57,ESCALA_TRAB_EQUIP!A2:B62,2,FALSE)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3719,27 +3115,21 @@
     <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:K40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="A39:A47"/>
-    <mergeCell ref="A27:A35"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C43:K44"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A34:A40"/>
+    <mergeCell ref="A24:A30"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D12:E12"/>
@@ -3747,24 +3137,21 @@
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:K28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D52:K52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C50:K51"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="A11:A21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:K25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:K35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:E6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -3789,7 +3176,7 @@
           <x14:formula1>
             <xm:f>'RELEVANCIA-PUNTAJE'!$B$2:$E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C13:C22 C54:C56 C43:C45 C31:C33</xm:sqref>
+          <xm:sqref>C13:C19 C47 C38 C28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3799,10 +3186,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC27BBF0-2056-4C6C-A496-F3E7DD799403}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3814,324 +3201,223 @@
     <col min="5" max="5" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="74" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="80" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="75"/>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="27">
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="60">
         <v>-0.3</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="60">
         <v>0</v>
       </c>
-      <c r="F4" s="76"/>
-    </row>
-    <row r="5" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="102" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="62">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="D9" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="102" x14ac:dyDescent="0.25">
+      <c r="A12" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="94.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="65.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="94.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="33">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A13:E13"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:F4"/>
@@ -4146,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D89" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4164,1135 +3450,505 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="35">
         <v>0</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="35">
         <v>0.5</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="35">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="52">
-        <v>1.1000000000000001</v>
+      <c r="B4" s="35">
+        <v>1.2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="35">
         <v>1.5</v>
       </c>
-      <c r="B5" s="52">
-        <v>1.1000000000000001</v>
+      <c r="B5" s="35">
+        <v>1.4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="35">
         <v>2</v>
       </c>
-      <c r="B6" s="52">
-        <v>1.1000000000000001</v>
+      <c r="B6" s="35">
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="35">
         <v>2.5</v>
       </c>
-      <c r="B7" s="52">
-        <v>1.2</v>
+      <c r="B7" s="35">
+        <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="35">
         <v>3</v>
       </c>
-      <c r="B8" s="52">
-        <v>1.2</v>
+      <c r="B8" s="35">
+        <v>1.7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="35">
         <v>3.5</v>
       </c>
-      <c r="B9" s="52">
-        <v>1.3</v>
+      <c r="B9" s="35">
+        <v>1.8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="35">
         <v>4</v>
       </c>
-      <c r="B10" s="52">
-        <v>1.3</v>
+      <c r="B10" s="35">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="35">
         <v>4.5</v>
       </c>
-      <c r="B11" s="52">
-        <v>1.3</v>
+      <c r="B11" s="35">
+        <v>2.1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="35">
         <v>5</v>
       </c>
-      <c r="B12" s="52">
-        <v>1.4</v>
+      <c r="B12" s="35">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="35">
         <v>5.5</v>
       </c>
-      <c r="B13" s="52">
-        <v>1.4</v>
+      <c r="B13" s="35">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="35">
         <v>6</v>
       </c>
-      <c r="B14" s="52">
-        <v>1.4</v>
+      <c r="B14" s="35">
+        <v>2.4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="35">
         <v>6.5</v>
       </c>
-      <c r="B15" s="52">
-        <v>1.5</v>
+      <c r="B15" s="35">
+        <v>2.6</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="35">
         <v>7</v>
       </c>
-      <c r="B16" s="52">
-        <v>1.5</v>
+      <c r="B16" s="35">
+        <v>2.7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="35">
         <v>7.5</v>
       </c>
-      <c r="B17" s="52">
-        <v>1.5</v>
+      <c r="B17" s="35">
+        <v>2.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="35">
         <v>8</v>
       </c>
-      <c r="B18" s="52">
-        <v>1.6</v>
+      <c r="B18" s="35">
+        <v>2.9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="35">
         <v>8.5</v>
       </c>
-      <c r="B19" s="52">
-        <v>1.6</v>
+      <c r="B19" s="35">
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="35">
         <v>9</v>
       </c>
-      <c r="B20" s="52">
-        <v>1.6</v>
+      <c r="B20" s="35">
+        <v>3.2</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="35">
         <v>9.5</v>
       </c>
-      <c r="B21" s="52">
-        <v>1.7</v>
+      <c r="B21" s="35">
+        <v>3.3</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="35">
         <v>10</v>
       </c>
-      <c r="B22" s="52">
-        <v>1.7</v>
+      <c r="B22" s="35">
+        <v>3.4</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="35">
         <v>10.5</v>
       </c>
-      <c r="B23" s="52">
-        <v>1.8</v>
+      <c r="B23" s="35">
+        <v>3.5</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="35">
         <v>11</v>
       </c>
-      <c r="B24" s="52">
-        <v>1.8</v>
+      <c r="B24" s="35">
+        <v>3.6</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="35">
         <v>11.5</v>
       </c>
-      <c r="B25" s="52">
-        <v>1.8</v>
+      <c r="B25" s="35">
+        <v>3.8</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="35">
         <v>12</v>
       </c>
-      <c r="B26" s="52">
-        <v>1.9</v>
+      <c r="B26" s="35">
+        <v>3.9</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="35">
         <v>12.5</v>
       </c>
-      <c r="B27" s="52">
-        <v>1.9</v>
+      <c r="B27" s="35">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="35">
         <v>13</v>
       </c>
-      <c r="B28" s="52">
-        <v>1.9</v>
+      <c r="B28" s="35">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="35">
         <v>13.5</v>
       </c>
-      <c r="B29" s="52">
-        <v>2</v>
+      <c r="B29" s="35">
+        <v>4.2</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="35">
         <v>14</v>
       </c>
-      <c r="B30" s="52">
-        <v>2</v>
+      <c r="B30" s="35">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="35">
         <v>14.5</v>
       </c>
-      <c r="B31" s="52">
-        <v>2</v>
+      <c r="B31" s="35">
+        <v>4.5</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="35">
         <v>15</v>
       </c>
-      <c r="B32" s="52">
-        <v>2.1</v>
+      <c r="B32" s="35">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="35">
         <v>15.5</v>
       </c>
-      <c r="B33" s="52">
-        <v>2.1</v>
+      <c r="B33" s="35">
+        <v>4.7</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="35">
         <v>16</v>
       </c>
-      <c r="B34" s="52">
-        <v>2.1</v>
+      <c r="B34" s="35">
+        <v>4.8</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="35">
         <v>16.5</v>
       </c>
-      <c r="B35" s="52">
-        <v>2.2000000000000002</v>
+      <c r="B35" s="35">
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="35">
         <v>17</v>
       </c>
-      <c r="B36" s="52">
-        <v>2.2000000000000002</v>
+      <c r="B36" s="35">
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="35">
         <v>17.5</v>
       </c>
-      <c r="B37" s="52">
-        <v>2.2999999999999998</v>
+      <c r="B37" s="35">
+        <v>5.2</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="35">
         <v>18</v>
       </c>
-      <c r="B38" s="52">
-        <v>2.2999999999999998</v>
+      <c r="B38" s="35">
+        <v>5.3</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="35">
         <v>18.5</v>
       </c>
-      <c r="B39" s="52">
-        <v>2.2999999999999998</v>
+      <c r="B39" s="35">
+        <v>5.4</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="35">
         <v>19</v>
       </c>
-      <c r="B40" s="52">
-        <v>2.4</v>
+      <c r="B40" s="35">
+        <v>5.6</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="35">
         <v>19.5</v>
       </c>
-      <c r="B41" s="52">
-        <v>2.4</v>
+      <c r="B41" s="35">
+        <v>5.7</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="35">
         <v>20</v>
       </c>
-      <c r="B42" s="52">
-        <v>2.4</v>
+      <c r="B42" s="35">
+        <v>5.8</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="35">
         <v>20.5</v>
       </c>
-      <c r="B43" s="52">
-        <v>2.5</v>
+      <c r="B43" s="35">
+        <v>5.9</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="35">
         <v>21</v>
       </c>
-      <c r="B44" s="52">
-        <v>2.5</v>
+      <c r="B44" s="35">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="35">
         <v>21.5</v>
       </c>
-      <c r="B45" s="52">
-        <v>2.5</v>
+      <c r="B45" s="35">
+        <v>6.2</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="35">
         <v>22</v>
       </c>
-      <c r="B46" s="52">
-        <v>2.6</v>
+      <c r="B46" s="35">
+        <v>6.3</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="35">
         <v>22.5</v>
       </c>
-      <c r="B47" s="52">
-        <v>2.6</v>
+      <c r="B47" s="35">
+        <v>6.4</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="35">
         <v>23</v>
       </c>
-      <c r="B48" s="52">
-        <v>2.6</v>
+      <c r="B48" s="35">
+        <v>6.5</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="35">
         <v>23.5</v>
       </c>
-      <c r="B49" s="52">
-        <v>2.7</v>
+      <c r="B49" s="35">
+        <v>6.6</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="35">
         <v>24</v>
       </c>
-      <c r="B50" s="52">
-        <v>2.7</v>
+      <c r="B50" s="35">
+        <v>6.8</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="35">
         <v>24.5</v>
       </c>
-      <c r="B51" s="52">
-        <v>2.8</v>
+      <c r="B51" s="35">
+        <v>6.9</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="35">
         <v>25</v>
       </c>
-      <c r="B52" s="52">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>25.5</v>
-      </c>
-      <c r="B53" s="52">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>26</v>
-      </c>
-      <c r="B54" s="52">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>26.5</v>
-      </c>
-      <c r="B55" s="52">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>27</v>
-      </c>
-      <c r="B56" s="52">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>27.5</v>
-      </c>
-      <c r="B57" s="52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>28</v>
-      </c>
-      <c r="B58" s="52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>28.5</v>
-      </c>
-      <c r="B59" s="52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>29</v>
-      </c>
-      <c r="B60" s="52">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>29.5</v>
-      </c>
-      <c r="B61" s="52">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>30</v>
-      </c>
-      <c r="B62" s="52">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>30.5</v>
-      </c>
-      <c r="B63" s="52">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>31</v>
-      </c>
-      <c r="B64" s="52">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>31.5</v>
-      </c>
-      <c r="B65" s="52">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>32</v>
-      </c>
-      <c r="B66" s="52">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>32.5</v>
-      </c>
-      <c r="B67" s="52">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>33</v>
-      </c>
-      <c r="B68" s="52">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>33.5</v>
-      </c>
-      <c r="B69" s="52">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>34</v>
-      </c>
-      <c r="B70" s="52">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>34.5</v>
-      </c>
-      <c r="B71" s="52">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>35</v>
-      </c>
-      <c r="B72" s="52">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>35.5</v>
-      </c>
-      <c r="B73" s="52">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>36</v>
-      </c>
-      <c r="B74" s="52">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>36.5</v>
-      </c>
-      <c r="B75" s="52">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>37</v>
-      </c>
-      <c r="B76" s="52">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>37.5</v>
-      </c>
-      <c r="B77" s="52">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>38</v>
-      </c>
-      <c r="B78" s="52">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>38.5</v>
-      </c>
-      <c r="B79" s="52">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>39</v>
-      </c>
-      <c r="B80" s="52">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>39.5</v>
-      </c>
-      <c r="B81" s="52">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>40</v>
-      </c>
-      <c r="B82" s="52">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>40.5</v>
-      </c>
-      <c r="B83" s="52">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>41</v>
-      </c>
-      <c r="B84" s="52">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>41.5</v>
-      </c>
-      <c r="B85" s="52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>42</v>
-      </c>
-      <c r="B86" s="52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>42.5</v>
-      </c>
-      <c r="B87" s="52">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>43</v>
-      </c>
-      <c r="B88" s="52">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>43.5</v>
-      </c>
-      <c r="B89" s="52">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>44</v>
-      </c>
-      <c r="B90" s="52">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>44.5</v>
-      </c>
-      <c r="B91" s="52">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>45</v>
-      </c>
-      <c r="B92" s="52">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>45.5</v>
-      </c>
-      <c r="B93" s="52">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>46</v>
-      </c>
-      <c r="B94" s="52">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>46.5</v>
-      </c>
-      <c r="B95" s="52">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>47</v>
-      </c>
-      <c r="B96" s="52">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>47.5</v>
-      </c>
-      <c r="B97" s="52">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>48</v>
-      </c>
-      <c r="B98" s="52">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>48.5</v>
-      </c>
-      <c r="B99" s="52">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>49</v>
-      </c>
-      <c r="B100" s="52">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>49.5</v>
-      </c>
-      <c r="B101" s="52">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>50</v>
-      </c>
-      <c r="B102" s="52">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>50.5</v>
-      </c>
-      <c r="B103" s="52">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>51</v>
-      </c>
-      <c r="B104" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>51.5</v>
-      </c>
-      <c r="B105" s="52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>52</v>
-      </c>
-      <c r="B106" s="52">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>52.5</v>
-      </c>
-      <c r="B107" s="52">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>53</v>
-      </c>
-      <c r="B108" s="52">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>53.5</v>
-      </c>
-      <c r="B109" s="52">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>54</v>
-      </c>
-      <c r="B110" s="52">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>54.5</v>
-      </c>
-      <c r="B111" s="52">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>55</v>
-      </c>
-      <c r="B112" s="52">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>55.5</v>
-      </c>
-      <c r="B113" s="52">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>56</v>
-      </c>
-      <c r="B114" s="52">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>56.5</v>
-      </c>
-      <c r="B115" s="52">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>57</v>
-      </c>
-      <c r="B116" s="52">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>57.5</v>
-      </c>
-      <c r="B117" s="52">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>58</v>
-      </c>
-      <c r="B118" s="52">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>58.5</v>
-      </c>
-      <c r="B119" s="52">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>59</v>
-      </c>
-      <c r="B120" s="52">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>59.5</v>
-      </c>
-      <c r="B121" s="52">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>60</v>
-      </c>
-      <c r="B122" s="52">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>60.5</v>
-      </c>
-      <c r="B123" s="52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>61</v>
-      </c>
-      <c r="B124" s="52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>61.5</v>
-      </c>
-      <c r="B125" s="52">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>62</v>
-      </c>
-      <c r="B126" s="52">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>62.5</v>
-      </c>
-      <c r="B127" s="52">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>63</v>
-      </c>
-      <c r="B128" s="52">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>63.5</v>
-      </c>
-      <c r="B129" s="52">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>64</v>
-      </c>
-      <c r="B130" s="52">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>64.5</v>
-      </c>
-      <c r="B131" s="52">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>65</v>
-      </c>
-      <c r="B132" s="52">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>65.5</v>
-      </c>
-      <c r="B133" s="52">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>66</v>
-      </c>
-      <c r="B134" s="52">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>66.5</v>
-      </c>
-      <c r="B135" s="52">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>67</v>
-      </c>
-      <c r="B136" s="52">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>67.5</v>
-      </c>
-      <c r="B137" s="52">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>68</v>
-      </c>
-      <c r="B138" s="52">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>68.5</v>
-      </c>
-      <c r="B139" s="52">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>69</v>
-      </c>
-      <c r="B140" s="52">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>69.5</v>
-      </c>
-      <c r="B141" s="52">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>70</v>
-      </c>
-      <c r="B142" s="52">
+      <c r="B52" s="35">
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7554,8 +6210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D89" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A95" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7575,7 +6231,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="52">
+      <c r="B2" s="34">
         <v>1</v>
       </c>
     </row>
@@ -7583,564 +6239,1124 @@
       <c r="A3">
         <v>0.5</v>
       </c>
-      <c r="B3" s="52">
-        <v>1.1000000000000001</v>
+      <c r="B3" s="34">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="52">
-        <v>1.2</v>
+      <c r="B4" s="34">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5</v>
       </c>
-      <c r="B5" s="52">
-        <v>1.3</v>
+      <c r="B5" s="34">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="52">
-        <v>1.3</v>
+      <c r="B6" s="34">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5</v>
       </c>
-      <c r="B7" s="52">
-        <v>1.4</v>
+      <c r="B7" s="34">
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="52">
-        <v>1.5</v>
+      <c r="B8" s="34">
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3.5</v>
       </c>
-      <c r="B9" s="52">
-        <v>1.6</v>
+      <c r="B9" s="34">
+        <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" s="52">
-        <v>1.7</v>
+      <c r="B10" s="34">
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4.5</v>
       </c>
-      <c r="B11" s="52">
-        <v>1.8</v>
+      <c r="B11" s="34">
+        <v>1.3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="52">
-        <v>1.8</v>
+      <c r="B12" s="34">
+        <v>1.4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.5</v>
       </c>
-      <c r="B13" s="52">
-        <v>1.9</v>
+      <c r="B13" s="34">
+        <v>1.4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="52">
-        <v>2</v>
+      <c r="B14" s="34">
+        <v>1.4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6.5</v>
       </c>
-      <c r="B15" s="52">
-        <v>2.1</v>
+      <c r="B15" s="34">
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="52">
-        <v>2.2000000000000002</v>
+      <c r="B16" s="34">
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7.5</v>
       </c>
-      <c r="B17" s="52">
-        <v>2.2999999999999998</v>
+      <c r="B17" s="34">
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="52">
-        <v>2.2999999999999998</v>
+      <c r="B18" s="34">
+        <v>1.6</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8.5</v>
       </c>
-      <c r="B19" s="52">
-        <v>2.4</v>
+      <c r="B19" s="34">
+        <v>1.6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="52">
-        <v>2.5</v>
+      <c r="B20" s="34">
+        <v>1.6</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9.5</v>
       </c>
-      <c r="B21" s="52">
-        <v>2.6</v>
+      <c r="B21" s="34">
+        <v>1.7</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="52">
-        <v>2.7</v>
+      <c r="B22" s="34">
+        <v>1.7</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10.5</v>
       </c>
-      <c r="B23" s="52">
-        <v>2.8</v>
+      <c r="B23" s="34">
+        <v>1.8</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
-      <c r="B24" s="52">
-        <v>2.8</v>
+      <c r="B24" s="34">
+        <v>1.8</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11.5</v>
       </c>
-      <c r="B25" s="52">
-        <v>2.9</v>
+      <c r="B25" s="34">
+        <v>1.8</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
-      <c r="B26" s="52">
-        <v>3</v>
+      <c r="B26" s="34">
+        <v>1.9</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12.5</v>
       </c>
-      <c r="B27" s="52">
-        <v>3.1</v>
+      <c r="B27" s="34">
+        <v>1.9</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
-      <c r="B28" s="52">
-        <v>3.2</v>
+      <c r="B28" s="34">
+        <v>1.9</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13.5</v>
       </c>
-      <c r="B29" s="52">
-        <v>3.3</v>
+      <c r="B29" s="34">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
-      <c r="B30" s="52">
-        <v>3.3</v>
+      <c r="B30" s="34">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14.5</v>
       </c>
-      <c r="B31" s="52">
-        <v>3.4</v>
+      <c r="B31" s="34">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15</v>
       </c>
-      <c r="B32" s="52">
-        <v>3.5</v>
+      <c r="B32" s="34">
+        <v>2.1</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15.5</v>
       </c>
-      <c r="B33" s="52">
-        <v>3.6</v>
+      <c r="B33" s="34">
+        <v>2.1</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>16</v>
       </c>
-      <c r="B34" s="52">
-        <v>3.7</v>
+      <c r="B34" s="34">
+        <v>2.1</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>16.5</v>
       </c>
-      <c r="B35" s="52">
-        <v>3.8</v>
+      <c r="B35" s="34">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>17</v>
       </c>
-      <c r="B36" s="52">
-        <v>3.8</v>
+      <c r="B36" s="34">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>17.5</v>
       </c>
-      <c r="B37" s="52">
-        <v>3.9</v>
+      <c r="B37" s="34">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18</v>
       </c>
-      <c r="B38" s="52">
-        <v>4</v>
+      <c r="B38" s="34">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>18.5</v>
       </c>
-      <c r="B39" s="52">
-        <v>4.0999999999999996</v>
+      <c r="B39" s="34">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>19</v>
       </c>
-      <c r="B40" s="52">
-        <v>4.3</v>
+      <c r="B40" s="34">
+        <v>2.4</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19.5</v>
       </c>
-      <c r="B41" s="52">
-        <v>4.4000000000000004</v>
+      <c r="B41" s="34">
+        <v>2.4</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20</v>
       </c>
-      <c r="B42" s="52">
-        <v>4.5</v>
+      <c r="B42" s="34">
+        <v>2.4</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20.5</v>
       </c>
-      <c r="B43" s="52">
-        <v>4.5999999999999996</v>
+      <c r="B43" s="34">
+        <v>2.5</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>21</v>
       </c>
-      <c r="B44" s="52">
-        <v>4.8</v>
+      <c r="B44" s="34">
+        <v>2.5</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>21.5</v>
       </c>
-      <c r="B45" s="52">
-        <v>4.9000000000000004</v>
+      <c r="B45" s="34">
+        <v>2.5</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22</v>
       </c>
-      <c r="B46" s="52">
-        <v>5</v>
+      <c r="B46" s="34">
+        <v>2.6</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22.5</v>
       </c>
-      <c r="B47" s="52">
-        <v>5.0999999999999996</v>
+      <c r="B47" s="34">
+        <v>2.6</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>23</v>
       </c>
-      <c r="B48" s="52">
-        <v>5.3</v>
+      <c r="B48" s="34">
+        <v>2.6</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>23.5</v>
       </c>
-      <c r="B49" s="52">
-        <v>5.4</v>
+      <c r="B49" s="34">
+        <v>2.7</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>24</v>
       </c>
-      <c r="B50" s="52">
-        <v>5.5</v>
+      <c r="B50" s="34">
+        <v>2.7</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>24.5</v>
       </c>
-      <c r="B51" s="52">
-        <v>5.6</v>
+      <c r="B51" s="34">
+        <v>2.8</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>25</v>
       </c>
-      <c r="B52" s="52">
-        <v>5.8</v>
+      <c r="B52" s="34">
+        <v>2.8</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>25.5</v>
       </c>
-      <c r="B53" s="52">
-        <v>5.9</v>
+      <c r="B53" s="34">
+        <v>2.8</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
-      <c r="B54" s="52">
-        <v>6</v>
+      <c r="B54" s="34">
+        <v>2.9</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26.5</v>
       </c>
-      <c r="B55" s="52">
-        <v>6.1</v>
+      <c r="B55" s="34">
+        <v>2.9</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>27</v>
       </c>
-      <c r="B56" s="52">
-        <v>6.3</v>
+      <c r="B56" s="34">
+        <v>2.9</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>27.5</v>
       </c>
-      <c r="B57" s="52">
-        <v>6.4</v>
+      <c r="B57" s="34">
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>28</v>
       </c>
-      <c r="B58" s="52">
-        <v>6.5</v>
+      <c r="B58" s="34">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>28.5</v>
       </c>
-      <c r="B59" s="52">
-        <v>6.6</v>
+      <c r="B59" s="34">
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>29</v>
       </c>
-      <c r="B60" s="52">
-        <v>6.8</v>
+      <c r="B60" s="34">
+        <v>3.1</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>29.5</v>
       </c>
-      <c r="B61" s="52">
-        <v>6.9</v>
+      <c r="B61" s="34">
+        <v>3.1</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>30</v>
       </c>
-      <c r="B62" s="52">
+      <c r="B62" s="34">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>30.5</v>
+      </c>
+      <c r="B63" s="34">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>31</v>
+      </c>
+      <c r="B64" s="34">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>31.5</v>
+      </c>
+      <c r="B65" s="34">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>32</v>
+      </c>
+      <c r="B66" s="34">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>32.5</v>
+      </c>
+      <c r="B67" s="34">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>33</v>
+      </c>
+      <c r="B68" s="34">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>33.5</v>
+      </c>
+      <c r="B69" s="34">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>34</v>
+      </c>
+      <c r="B70" s="34">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>34.5</v>
+      </c>
+      <c r="B71" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>35</v>
+      </c>
+      <c r="B72" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>35.5</v>
+      </c>
+      <c r="B73" s="34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>36</v>
+      </c>
+      <c r="B74" s="34">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>36.5</v>
+      </c>
+      <c r="B75" s="34">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>37</v>
+      </c>
+      <c r="B76" s="34">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>37.5</v>
+      </c>
+      <c r="B77" s="34">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>38</v>
+      </c>
+      <c r="B78" s="34">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>38.5</v>
+      </c>
+      <c r="B79" s="34">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>39</v>
+      </c>
+      <c r="B80" s="34">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>39.5</v>
+      </c>
+      <c r="B81" s="34">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>40</v>
+      </c>
+      <c r="B82" s="34">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>40.5</v>
+      </c>
+      <c r="B83" s="34">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>41</v>
+      </c>
+      <c r="B84" s="34">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>41.5</v>
+      </c>
+      <c r="B85" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>42</v>
+      </c>
+      <c r="B86" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>42.5</v>
+      </c>
+      <c r="B87" s="34">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>43</v>
+      </c>
+      <c r="B88" s="34">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>43.5</v>
+      </c>
+      <c r="B89" s="34">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>44</v>
+      </c>
+      <c r="B90" s="34">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>44.5</v>
+      </c>
+      <c r="B91" s="34">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>45</v>
+      </c>
+      <c r="B92" s="34">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>45.5</v>
+      </c>
+      <c r="B93" s="34">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>46</v>
+      </c>
+      <c r="B94" s="34">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>46.5</v>
+      </c>
+      <c r="B95" s="34">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>47</v>
+      </c>
+      <c r="B96" s="34">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>47.5</v>
+      </c>
+      <c r="B97" s="34">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>48</v>
+      </c>
+      <c r="B98" s="34">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>48.5</v>
+      </c>
+      <c r="B99" s="34">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>49</v>
+      </c>
+      <c r="B100" s="34">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>49.5</v>
+      </c>
+      <c r="B101" s="34">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>50</v>
+      </c>
+      <c r="B102" s="34">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>50.5</v>
+      </c>
+      <c r="B103" s="34">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>51</v>
+      </c>
+      <c r="B104" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>51.5</v>
+      </c>
+      <c r="B105" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>52</v>
+      </c>
+      <c r="B106" s="34">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>52.5</v>
+      </c>
+      <c r="B107" s="34">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>53</v>
+      </c>
+      <c r="B108" s="34">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>53.5</v>
+      </c>
+      <c r="B109" s="34">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>54</v>
+      </c>
+      <c r="B110" s="34">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>54.5</v>
+      </c>
+      <c r="B111" s="34">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>55</v>
+      </c>
+      <c r="B112" s="34">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>55.5</v>
+      </c>
+      <c r="B113" s="34">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>56</v>
+      </c>
+      <c r="B114" s="34">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>56.5</v>
+      </c>
+      <c r="B115" s="34">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>57</v>
+      </c>
+      <c r="B116" s="34">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>57.5</v>
+      </c>
+      <c r="B117" s="34">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>58</v>
+      </c>
+      <c r="B118" s="34">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>58.5</v>
+      </c>
+      <c r="B119" s="34">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>59</v>
+      </c>
+      <c r="B120" s="34">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>59.5</v>
+      </c>
+      <c r="B121" s="34">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>60</v>
+      </c>
+      <c r="B122" s="34">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>60.5</v>
+      </c>
+      <c r="B123" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>61</v>
+      </c>
+      <c r="B124" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>61.5</v>
+      </c>
+      <c r="B125" s="34">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>62</v>
+      </c>
+      <c r="B126" s="34">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>62.5</v>
+      </c>
+      <c r="B127" s="34">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>63</v>
+      </c>
+      <c r="B128" s="34">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>63.5</v>
+      </c>
+      <c r="B129" s="34">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>64</v>
+      </c>
+      <c r="B130" s="34">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>64.5</v>
+      </c>
+      <c r="B131" s="34">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>65</v>
+      </c>
+      <c r="B132" s="34">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>65.5</v>
+      </c>
+      <c r="B133" s="34">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>66</v>
+      </c>
+      <c r="B134" s="34">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>66.5</v>
+      </c>
+      <c r="B135" s="34">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>67</v>
+      </c>
+      <c r="B136" s="34">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>67.5</v>
+      </c>
+      <c r="B137" s="34">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>68</v>
+      </c>
+      <c r="B138" s="34">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>68.5</v>
+      </c>
+      <c r="B139" s="34">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>69</v>
+      </c>
+      <c r="B140" s="34">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>69.5</v>
+      </c>
+      <c r="B141" s="34">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>70</v>
+      </c>
+      <c r="B142" s="34">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9017,7 +8233,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -9028,15 +8244,15 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>78</v>
+      <c r="D2" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>10</v>
